--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf15</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H2">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I2">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J2">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>0.02574901087222222</v>
+        <v>0.107227563993</v>
       </c>
       <c r="R2">
-        <v>0.23174109785</v>
+        <v>0.965048075937</v>
       </c>
       <c r="S2">
-        <v>0.02480226420649059</v>
+        <v>0.08226314604006478</v>
       </c>
       <c r="T2">
-        <v>0.02480226420649059</v>
+        <v>0.08226314604006479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H3">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I3">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J3">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>0.08537282903777776</v>
+        <v>0.177183877354</v>
       </c>
       <c r="R3">
-        <v>0.7683554613399999</v>
+        <v>1.594654896186</v>
       </c>
       <c r="S3">
-        <v>0.08223381753800839</v>
+        <v>0.1359324285280654</v>
       </c>
       <c r="T3">
-        <v>0.08223381753800837</v>
+        <v>0.1359324285280654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H4">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I4">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J4">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>0.007713776697777778</v>
+        <v>0.023813717961</v>
       </c>
       <c r="R4">
-        <v>0.06942399028</v>
+        <v>0.214323461649</v>
       </c>
       <c r="S4">
-        <v>0.007430154448944218</v>
+        <v>0.01826947554744919</v>
       </c>
       <c r="T4">
-        <v>0.007430154448944219</v>
+        <v>0.01826947554744919</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03652333333333333</v>
+        <v>0.133329</v>
       </c>
       <c r="H5">
-        <v>0.10957</v>
+        <v>0.399987</v>
       </c>
       <c r="I5">
-        <v>0.1147167677867527</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J5">
-        <v>0.1147167677867526</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.0002600948311111111</v>
+        <v>0.188606270097</v>
       </c>
       <c r="R5">
-        <v>0.00234085348</v>
+        <v>1.697456430873</v>
       </c>
       <c r="S5">
-        <v>0.0002505315933094555</v>
+        <v>0.1446954921224759</v>
       </c>
       <c r="T5">
-        <v>0.0002505315933094555</v>
+        <v>0.1446954921224759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,40 +788,40 @@
         <v>0.399987</v>
       </c>
       <c r="I6">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J6">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>0.093997167215</v>
+        <v>0.311654848666</v>
       </c>
       <c r="R6">
-        <v>0.8459745049349999</v>
+        <v>2.804893637994</v>
       </c>
       <c r="S6">
-        <v>0.09054105369317837</v>
+        <v>0.2390962489046111</v>
       </c>
       <c r="T6">
-        <v>0.09054105369317836</v>
+        <v>0.2390962489046111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +850,10 @@
         <v>0.399987</v>
       </c>
       <c r="I7">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J7">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +862,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>0.311654848666</v>
+        <v>0.04188677196899999</v>
       </c>
       <c r="R7">
-        <v>2.804893637994</v>
+        <v>0.376980947721</v>
       </c>
       <c r="S7">
-        <v>0.3001958380539871</v>
+        <v>0.03213481227511316</v>
       </c>
       <c r="T7">
-        <v>0.300195838053987</v>
+        <v>0.03213481227511316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.133329</v>
+        <v>0.111429</v>
       </c>
       <c r="H8">
-        <v>0.399987</v>
+        <v>0.334287</v>
       </c>
       <c r="I8">
-        <v>0.4187753563632367</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J8">
-        <v>0.4187753563632365</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +924,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2112013333333334</v>
+        <v>1.414593</v>
       </c>
       <c r="N8">
-        <v>0.6336040000000001</v>
+        <v>4.243779</v>
       </c>
       <c r="O8">
-        <v>0.0647695589083904</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P8">
-        <v>0.06476955890839041</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q8">
-        <v>0.028159262572</v>
+        <v>0.157626683397</v>
       </c>
       <c r="R8">
-        <v>0.253433363148</v>
+        <v>1.418640150573</v>
       </c>
       <c r="S8">
-        <v>0.02712389511335084</v>
+        <v>0.1209284851136314</v>
       </c>
       <c r="T8">
-        <v>0.02712389511335083</v>
+        <v>0.1209284851136315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.133329</v>
+        <v>0.111429</v>
       </c>
       <c r="H9">
-        <v>0.399987</v>
+        <v>0.334287</v>
       </c>
       <c r="I9">
-        <v>0.4187753563632367</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J9">
-        <v>0.4187753563632365</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.007121333333333333</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N9">
-        <v>0.021364</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P9">
-        <v>0.002183914332167809</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q9">
-        <v>0.0009494802519999999</v>
+        <v>0.260463876066</v>
       </c>
       <c r="R9">
-        <v>0.008545322267999998</v>
+        <v>2.344174884594</v>
       </c>
       <c r="S9">
-        <v>0.0009145695027203541</v>
+        <v>0.1998234136548831</v>
       </c>
       <c r="T9">
-        <v>0.0009145695027203539</v>
+        <v>0.1998234136548831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,495 +1015,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H10">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I10">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J10">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7050016666666666</v>
+        <v>0.314161</v>
       </c>
       <c r="N10">
-        <v>2.115005</v>
+        <v>0.942483</v>
       </c>
       <c r="O10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P10">
-        <v>0.2162043499394578</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q10">
-        <v>0.078092329615</v>
+        <v>0.035006646069</v>
       </c>
       <c r="R10">
-        <v>0.7028309665350001</v>
+        <v>0.315059814621</v>
       </c>
       <c r="S10">
-        <v>0.07522100950685653</v>
+        <v>0.02685649781370582</v>
       </c>
       <c r="T10">
-        <v>0.07522100950685653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.110769</v>
-      </c>
-      <c r="H11">
-        <v>0.332307</v>
-      </c>
-      <c r="I11">
-        <v>0.3479162631460475</v>
-      </c>
-      <c r="J11">
-        <v>0.3479162631460474</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.337487333333333</v>
-      </c>
-      <c r="N11">
-        <v>7.012461999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="P11">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="Q11">
-        <v>0.258921134426</v>
-      </c>
-      <c r="R11">
-        <v>2.330290209834</v>
-      </c>
-      <c r="S11">
-        <v>0.249401051424687</v>
-      </c>
-      <c r="T11">
-        <v>0.249401051424687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.110769</v>
-      </c>
-      <c r="H12">
-        <v>0.332307</v>
-      </c>
-      <c r="I12">
-        <v>0.3479162631460475</v>
-      </c>
-      <c r="J12">
-        <v>0.3479162631460474</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.2112013333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.6336040000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.0647695589083904</v>
-      </c>
-      <c r="P12">
-        <v>0.06476955890839041</v>
-      </c>
-      <c r="Q12">
-        <v>0.023394560492</v>
-      </c>
-      <c r="R12">
-        <v>0.210551044428</v>
-      </c>
-      <c r="S12">
-        <v>0.02253438290102498</v>
-      </c>
-      <c r="T12">
-        <v>0.02253438290102498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.110769</v>
-      </c>
-      <c r="H13">
-        <v>0.332307</v>
-      </c>
-      <c r="I13">
-        <v>0.3479162631460475</v>
-      </c>
-      <c r="J13">
-        <v>0.3479162631460474</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.021364</v>
-      </c>
-      <c r="O13">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P13">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q13">
-        <v>0.000788822972</v>
-      </c>
-      <c r="R13">
-        <v>0.007099406748</v>
-      </c>
-      <c r="S13">
-        <v>0.0007598193134789198</v>
-      </c>
-      <c r="T13">
-        <v>0.0007598193134789197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.113271</v>
-      </c>
-      <c r="I14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.7050016666666666</v>
-      </c>
-      <c r="N14">
-        <v>2.115005</v>
-      </c>
-      <c r="O14">
-        <v>0.2162043499394578</v>
-      </c>
-      <c r="P14">
-        <v>0.2162043499394578</v>
-      </c>
-      <c r="Q14">
-        <v>0.02661874792833334</v>
-      </c>
-      <c r="R14">
-        <v>0.239568731355</v>
-      </c>
-      <c r="S14">
-        <v>0.02564002253293234</v>
-      </c>
-      <c r="T14">
-        <v>0.02564002253293234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.113271</v>
-      </c>
-      <c r="I15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.337487333333333</v>
-      </c>
-      <c r="N15">
-        <v>7.012461999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="P15">
-        <v>0.716842176819984</v>
-      </c>
-      <c r="Q15">
-        <v>0.08825650924466667</v>
-      </c>
-      <c r="R15">
-        <v>0.794308583202</v>
-      </c>
-      <c r="S15">
-        <v>0.08501146980330154</v>
-      </c>
-      <c r="T15">
-        <v>0.08501146980330153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.113271</v>
-      </c>
-      <c r="I16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.2112013333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.6336040000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.0647695589083904</v>
-      </c>
-      <c r="P16">
-        <v>0.06476955890839041</v>
-      </c>
-      <c r="Q16">
-        <v>0.007974328742666669</v>
-      </c>
-      <c r="R16">
-        <v>0.07176895868400002</v>
-      </c>
-      <c r="S16">
-        <v>0.007681126445070372</v>
-      </c>
-      <c r="T16">
-        <v>0.007681126445070373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.113271</v>
-      </c>
-      <c r="I17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.021364</v>
-      </c>
-      <c r="O17">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P17">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q17">
-        <v>0.0002688801826666667</v>
-      </c>
-      <c r="R17">
-        <v>0.002419921644</v>
-      </c>
-      <c r="S17">
-        <v>0.0002589939226590795</v>
-      </c>
-      <c r="T17">
-        <v>0.0002589939226590795</v>
+        <v>0.02685649781370583</v>
       </c>
     </row>
   </sheetData>
